--- a/JupyterNotebooks/AveragedIntensites/GossA-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW45.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW45.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>1.001223366852502</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.004001539351017</v>
+      </c>
+      <c r="D16">
+        <v>0.9977992842888757</v>
+      </c>
+      <c r="E16">
+        <v>0.9969934576433873</v>
+      </c>
+      <c r="F16">
+        <v>0.9965505781855611</v>
+      </c>
+      <c r="G16">
+        <v>1.004001539351017</v>
+      </c>
+      <c r="H16">
+        <v>0.9977992842888757</v>
+      </c>
+      <c r="I16">
+        <v>1.002890434648806</v>
+      </c>
+      <c r="J16">
+        <v>1.004183012944848</v>
+      </c>
+      <c r="K16">
+        <v>1.001764705882353</v>
+      </c>
+      <c r="L16">
+        <v>0.9988381534760072</v>
+      </c>
+      <c r="M16">
+        <v>1.004001539351017</v>
+      </c>
+      <c r="N16">
+        <v>0.9973963709661315</v>
+      </c>
+      <c r="O16">
+        <v>0.9988362148672103</v>
+      </c>
+      <c r="P16">
+        <v>1.000377645802607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.004001539351017</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW45.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9925039999999995</v>
+        <v>1.004001539351017</v>
       </c>
       <c r="D10">
-        <v>1.003736000000001</v>
+        <v>0.9977992842888757</v>
       </c>
       <c r="E10">
-        <v>0.9920800000000005</v>
+        <v>0.9969934576433873</v>
       </c>
       <c r="F10">
-        <v>0.9983280000000007</v>
+        <v>0.9965505781855611</v>
       </c>
       <c r="G10">
-        <v>0.9925039999999995</v>
+        <v>1.004001539351017</v>
       </c>
       <c r="H10">
-        <v>1.003736000000001</v>
+        <v>0.9977992842888757</v>
       </c>
       <c r="I10">
-        <v>1.005219999999999</v>
+        <v>1.002890434648806</v>
       </c>
       <c r="J10">
-        <v>1.013131999999999</v>
+        <v>1.004183012944848</v>
       </c>
       <c r="K10">
-        <v>0.9972920000000002</v>
+        <v>1.001764705882353</v>
       </c>
       <c r="L10">
-        <v>1.004780000000002</v>
+        <v>0.9988381534760072</v>
       </c>
       <c r="M10">
-        <v>0.9925039999999995</v>
+        <v>1.004001539351017</v>
       </c>
       <c r="N10">
-        <v>0.9979080000000007</v>
+        <v>0.9973963709661315</v>
       </c>
       <c r="O10">
-        <v>0.9966620000000004</v>
+        <v>0.9988362148672103</v>
       </c>
       <c r="P10">
-        <v>1.000884</v>
+        <v>1.000377645802607</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9883836777873508</v>
       </c>
       <c r="D11">
-        <v>0.98</v>
+        <v>1.022357172799638</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>0.9969374541203054</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>1.006233435133741</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.9883836777873508</v>
       </c>
       <c r="H11">
-        <v>0.98</v>
+        <v>1.022357172799638</v>
       </c>
       <c r="I11">
-        <v>1.02</v>
+        <v>0.9924249541335471</v>
       </c>
       <c r="J11">
-        <v>1.02</v>
+        <v>1.005203906099783</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9959337207146849</v>
       </c>
       <c r="L11">
-        <v>0.99</v>
+        <v>1.015525468281536</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.9883836777873508</v>
       </c>
       <c r="N11">
-        <v>0.985</v>
+        <v>1.009647313459972</v>
       </c>
       <c r="O11">
-        <v>0.99</v>
+        <v>1.003477934960259</v>
       </c>
       <c r="P11">
-        <v>0.99875</v>
+        <v>1.002874973633823</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000941521510403</v>
+        <v>0.9883562099745855</v>
       </c>
       <c r="D12">
-        <v>0.9888565141503992</v>
+        <v>1.022470091483814</v>
       </c>
       <c r="E12">
-        <v>0.9955855755263997</v>
+        <v>0.9969643435410405</v>
       </c>
       <c r="F12">
-        <v>0.9949921193983998</v>
+        <v>1.006281656054412</v>
       </c>
       <c r="G12">
-        <v>1.000941521510403</v>
+        <v>0.9883562099745855</v>
       </c>
       <c r="H12">
-        <v>0.9888565141503992</v>
+        <v>1.022470091483814</v>
       </c>
       <c r="I12">
-        <v>1.0112700008448</v>
+        <v>0.9923321016573046</v>
       </c>
       <c r="J12">
-        <v>1.010862530559998</v>
+        <v>1.005139870111546</v>
       </c>
       <c r="K12">
-        <v>1.000455529062398</v>
+        <v>0.9959242338054352</v>
       </c>
       <c r="L12">
-        <v>0.9948403554303968</v>
+        <v>1.01559592239892</v>
       </c>
       <c r="M12">
-        <v>1.000941521510403</v>
+        <v>0.9883562099745855</v>
       </c>
       <c r="N12">
-        <v>0.9922210448383995</v>
+        <v>1.009717217512427</v>
       </c>
       <c r="O12">
-        <v>0.9950939326464003</v>
+        <v>1.003518075263463</v>
       </c>
       <c r="P12">
-        <v>0.9997255183103992</v>
+        <v>1.002883053628382</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00155321537034</v>
+        <v>0.9883812341737249</v>
       </c>
       <c r="D13">
-        <v>1.001014174664779</v>
+        <v>1.022381054356469</v>
       </c>
       <c r="E13">
-        <v>1.001585625256139</v>
+        <v>0.9969516242356437</v>
       </c>
       <c r="F13">
-        <v>1.000962094148966</v>
+        <v>1.006248178022062</v>
       </c>
       <c r="G13">
-        <v>1.00155321537034</v>
+        <v>0.9883812341737249</v>
       </c>
       <c r="H13">
-        <v>1.001014174664779</v>
+        <v>1.022381054356469</v>
       </c>
       <c r="I13">
-        <v>1.000430032913838</v>
+        <v>0.9923862917060815</v>
       </c>
       <c r="J13">
-        <v>1.0008019392438</v>
+        <v>1.005165588612935</v>
       </c>
       <c r="K13">
-        <v>1.000806155356935</v>
+        <v>0.995933012218772</v>
       </c>
       <c r="L13">
-        <v>1.00129729386553</v>
+        <v>1.015542332008813</v>
       </c>
       <c r="M13">
-        <v>1.00155321537034</v>
+        <v>0.9883812341737249</v>
       </c>
       <c r="N13">
-        <v>1.001299899960459</v>
+        <v>1.009666339296056</v>
       </c>
       <c r="O13">
-        <v>1.001278777360056</v>
+        <v>1.003490522696975</v>
       </c>
       <c r="P13">
-        <v>1.001056316352541</v>
+        <v>1.002873664416813</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000434122083101</v>
+        <v>0.9925039999999995</v>
       </c>
       <c r="D14">
-        <v>1.002256999084803</v>
+        <v>1.003736000000001</v>
       </c>
       <c r="E14">
-        <v>1.001620367298374</v>
+        <v>0.9920800000000005</v>
       </c>
       <c r="F14">
-        <v>1.000573938224906</v>
+        <v>0.9983280000000007</v>
       </c>
       <c r="G14">
-        <v>1.000434122083101</v>
+        <v>0.9925039999999995</v>
       </c>
       <c r="H14">
-        <v>1.002256999084803</v>
+        <v>1.003736000000001</v>
       </c>
       <c r="I14">
-        <v>1.00014262908846</v>
+        <v>1.005219999999999</v>
       </c>
       <c r="J14">
-        <v>1.001183795275812</v>
+        <v>1.013131999999999</v>
       </c>
       <c r="K14">
-        <v>1.000902179082475</v>
+        <v>0.9972920000000002</v>
       </c>
       <c r="L14">
-        <v>1.002419018510564</v>
+        <v>1.004780000000002</v>
       </c>
       <c r="M14">
-        <v>1.000434122083101</v>
+        <v>0.9925039999999995</v>
       </c>
       <c r="N14">
-        <v>1.001938683191589</v>
+        <v>0.9979080000000007</v>
       </c>
       <c r="O14">
-        <v>1.001221356672796</v>
+        <v>0.9966620000000004</v>
       </c>
       <c r="P14">
-        <v>1.001191631081062</v>
+        <v>1.000884</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000854996607823</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.002670177542221</v>
+        <v>0.98</v>
       </c>
       <c r="E15">
-        <v>1.001170958968433</v>
+        <v>0.99</v>
       </c>
       <c r="F15">
-        <v>1.001482482453176</v>
+        <v>0.99</v>
       </c>
       <c r="G15">
-        <v>1.000854996607823</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1.002670177542221</v>
+        <v>0.98</v>
       </c>
       <c r="I15">
-        <v>0.9998245457093347</v>
+        <v>1.02</v>
       </c>
       <c r="J15">
-        <v>1.000811100055283</v>
+        <v>1.02</v>
       </c>
       <c r="K15">
-        <v>1.000546094034378</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.002426579449365</v>
+        <v>0.99</v>
       </c>
       <c r="M15">
-        <v>1.000854996607823</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.001920568255327</v>
+        <v>0.985</v>
       </c>
       <c r="O15">
-        <v>1.001544653892913</v>
+        <v>0.99</v>
       </c>
       <c r="P15">
-        <v>1.001223366852502</v>
+        <v>0.99875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004001539351017</v>
+        <v>1.000941521510403</v>
       </c>
       <c r="D16">
-        <v>0.9977992842888757</v>
+        <v>0.9888565141503992</v>
       </c>
       <c r="E16">
-        <v>0.9969934576433873</v>
+        <v>0.9955855755263997</v>
       </c>
       <c r="F16">
-        <v>0.9965505781855611</v>
+        <v>0.9949921193983998</v>
       </c>
       <c r="G16">
-        <v>1.004001539351017</v>
+        <v>1.000941521510403</v>
       </c>
       <c r="H16">
-        <v>0.9977992842888757</v>
+        <v>0.9888565141503992</v>
       </c>
       <c r="I16">
-        <v>1.002890434648806</v>
+        <v>1.0112700008448</v>
       </c>
       <c r="J16">
-        <v>1.004183012944848</v>
+        <v>1.010862530559998</v>
       </c>
       <c r="K16">
-        <v>1.001764705882353</v>
+        <v>1.000455529062398</v>
       </c>
       <c r="L16">
-        <v>0.9988381534760072</v>
+        <v>0.9948403554303968</v>
       </c>
       <c r="M16">
-        <v>1.004001539351017</v>
+        <v>1.000941521510403</v>
       </c>
       <c r="N16">
-        <v>0.9973963709661315</v>
+        <v>0.9922210448383995</v>
       </c>
       <c r="O16">
-        <v>0.9988362148672103</v>
+        <v>0.9950939326464003</v>
       </c>
       <c r="P16">
-        <v>1.000377645802607</v>
+        <v>0.9997255183103992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.00155321537034</v>
+      </c>
+      <c r="D17">
+        <v>1.001014174664779</v>
+      </c>
+      <c r="E17">
+        <v>1.001585625256139</v>
+      </c>
+      <c r="F17">
+        <v>1.000962094148966</v>
+      </c>
+      <c r="G17">
+        <v>1.00155321537034</v>
+      </c>
+      <c r="H17">
+        <v>1.001014174664779</v>
+      </c>
+      <c r="I17">
+        <v>1.000430032913838</v>
+      </c>
+      <c r="J17">
+        <v>1.0008019392438</v>
+      </c>
+      <c r="K17">
+        <v>1.000806155356935</v>
+      </c>
+      <c r="L17">
+        <v>1.00129729386553</v>
+      </c>
+      <c r="M17">
+        <v>1.00155321537034</v>
+      </c>
+      <c r="N17">
+        <v>1.001299899960459</v>
+      </c>
+      <c r="O17">
+        <v>1.001278777360056</v>
+      </c>
+      <c r="P17">
+        <v>1.001056316352541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.000434122083101</v>
+      </c>
+      <c r="D18">
+        <v>1.002256999084803</v>
+      </c>
+      <c r="E18">
+        <v>1.001620367298374</v>
+      </c>
+      <c r="F18">
+        <v>1.000573938224906</v>
+      </c>
+      <c r="G18">
+        <v>1.000434122083101</v>
+      </c>
+      <c r="H18">
+        <v>1.002256999084803</v>
+      </c>
+      <c r="I18">
+        <v>1.00014262908846</v>
+      </c>
+      <c r="J18">
+        <v>1.001183795275812</v>
+      </c>
+      <c r="K18">
+        <v>1.000902179082475</v>
+      </c>
+      <c r="L18">
+        <v>1.002419018510564</v>
+      </c>
+      <c r="M18">
+        <v>1.000434122083101</v>
+      </c>
+      <c r="N18">
+        <v>1.001938683191589</v>
+      </c>
+      <c r="O18">
+        <v>1.001221356672796</v>
+      </c>
+      <c r="P18">
+        <v>1.001191631081062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.000854996607823</v>
+      </c>
+      <c r="D19">
+        <v>1.002670177542221</v>
+      </c>
+      <c r="E19">
+        <v>1.001170958968433</v>
+      </c>
+      <c r="F19">
+        <v>1.001482482453176</v>
+      </c>
+      <c r="G19">
+        <v>1.000854996607823</v>
+      </c>
+      <c r="H19">
+        <v>1.002670177542221</v>
+      </c>
+      <c r="I19">
+        <v>0.9998245457093347</v>
+      </c>
+      <c r="J19">
+        <v>1.000811100055283</v>
+      </c>
+      <c r="K19">
+        <v>1.000546094034378</v>
+      </c>
+      <c r="L19">
+        <v>1.002426579449365</v>
+      </c>
+      <c r="M19">
+        <v>1.000854996607823</v>
+      </c>
+      <c r="N19">
+        <v>1.001920568255327</v>
+      </c>
+      <c r="O19">
+        <v>1.001544653892913</v>
+      </c>
+      <c r="P19">
+        <v>1.001223366852502</v>
       </c>
     </row>
   </sheetData>
